--- a/data/Schedule_1P.xlsx
+++ b/data/Schedule_1P.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Biking</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Soccer</t>
+  </si>
+  <si>
+    <t>Polka Dot Art</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Storm the Castle</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Softball</t>
   </si>
 </sst>
 </file>
@@ -357,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A2:H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +403,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
